--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Apln-Aplnr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Apln-Aplnr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Aplnr</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.2434987950574</v>
+        <v>8.878789333333332</v>
       </c>
       <c r="H2">
-        <v>2.2434987950574</v>
+        <v>26.636368</v>
       </c>
       <c r="I2">
-        <v>0.2009268870835046</v>
+        <v>0.4861213416639564</v>
       </c>
       <c r="J2">
-        <v>0.2009268870835046</v>
+        <v>0.4861213416639563</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.2939901889302</v>
+        <v>91.82302933333334</v>
       </c>
       <c r="N2">
-        <v>39.2939901889302</v>
+        <v>275.469088</v>
       </c>
       <c r="O2">
-        <v>0.949032832847687</v>
+        <v>0.9709126239857535</v>
       </c>
       <c r="P2">
-        <v>0.949032832847687</v>
+        <v>0.9709126239857532</v>
       </c>
       <c r="Q2">
-        <v>88.15601964186222</v>
+        <v>815.2773333991537</v>
       </c>
       <c r="R2">
-        <v>88.15601964186222</v>
+        <v>7337.496000592383</v>
       </c>
       <c r="S2">
-        <v>0.1906862128441258</v>
+        <v>0.471981347410427</v>
       </c>
       <c r="T2">
-        <v>0.1906862128441258</v>
+        <v>0.4719813474104267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.2434987950574</v>
+        <v>8.878789333333332</v>
       </c>
       <c r="H3">
-        <v>2.2434987950574</v>
+        <v>26.636368</v>
       </c>
       <c r="I3">
-        <v>0.2009268870835046</v>
+        <v>0.4861213416639564</v>
       </c>
       <c r="J3">
-        <v>0.2009268870835046</v>
+        <v>0.4861213416639563</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.227064258733325</v>
+        <v>0.2289483333333333</v>
       </c>
       <c r="N3">
-        <v>0.227064258733325</v>
+        <v>0.686845</v>
       </c>
       <c r="O3">
-        <v>0.00548408129762437</v>
+        <v>0.002420839616027969</v>
       </c>
       <c r="P3">
-        <v>0.00548408129762437</v>
+        <v>0.002420839616027969</v>
       </c>
       <c r="Q3">
-        <v>0.5094183908688164</v>
+        <v>2.032784019884444</v>
       </c>
       <c r="R3">
-        <v>0.5094183908688164</v>
+        <v>18.29505617896</v>
       </c>
       <c r="S3">
-        <v>0.001101899383644531</v>
+        <v>0.001176821802096774</v>
       </c>
       <c r="T3">
-        <v>0.001101899383644531</v>
+        <v>0.001176821802096773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.2434987950574</v>
+        <v>8.878789333333332</v>
       </c>
       <c r="H4">
-        <v>2.2434987950574</v>
+        <v>26.636368</v>
       </c>
       <c r="I4">
-        <v>0.2009268870835046</v>
+        <v>0.4861213416639564</v>
       </c>
       <c r="J4">
-        <v>0.2009268870835046</v>
+        <v>0.4861213416639563</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.353134453448258</v>
+        <v>0.4168003333333333</v>
       </c>
       <c r="N4">
-        <v>0.353134453448258</v>
+        <v>1.250401</v>
       </c>
       <c r="O4">
-        <v>0.008528942698889704</v>
+        <v>0.004407137384302118</v>
       </c>
       <c r="P4">
-        <v>0.008528942698889704</v>
+        <v>0.004407137384302117</v>
       </c>
       <c r="Q4">
-        <v>0.7922567208044203</v>
+        <v>3.700682353729777</v>
       </c>
       <c r="R4">
-        <v>0.7922567208044203</v>
+        <v>33.30614118356799</v>
       </c>
       <c r="S4">
-        <v>0.001713693906601493</v>
+        <v>0.002142403538154325</v>
       </c>
       <c r="T4">
-        <v>0.001713693906601493</v>
+        <v>0.002142403538154324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.2434987950574</v>
+        <v>8.878789333333332</v>
       </c>
       <c r="H5">
-        <v>2.2434987950574</v>
+        <v>26.636368</v>
       </c>
       <c r="I5">
-        <v>0.2009268870835046</v>
+        <v>0.4861213416639564</v>
       </c>
       <c r="J5">
-        <v>0.2009268870835046</v>
+        <v>0.4861213416639563</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09382392368424</v>
+        <v>1.280680666666667</v>
       </c>
       <c r="N5">
-        <v>1.09382392368424</v>
+        <v>3.842042</v>
       </c>
       <c r="O5">
-        <v>0.02641815738079637</v>
+        <v>0.01354158140489241</v>
       </c>
       <c r="P5">
-        <v>0.02641815738079637</v>
+        <v>0.01354158140489241</v>
       </c>
       <c r="Q5">
-        <v>2.45399265479055</v>
+        <v>11.37089384260622</v>
       </c>
       <c r="R5">
-        <v>2.45399265479055</v>
+        <v>102.338044583456</v>
       </c>
       <c r="S5">
-        <v>0.005308118125005526</v>
+        <v>0.006582851720797984</v>
       </c>
       <c r="T5">
-        <v>0.005308118125005526</v>
+        <v>0.006582851720797981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.2434987950574</v>
+        <v>8.878789333333332</v>
       </c>
       <c r="H6">
-        <v>2.2434987950574</v>
+        <v>26.636368</v>
       </c>
       <c r="I6">
-        <v>0.2009268870835046</v>
+        <v>0.4861213416639564</v>
       </c>
       <c r="J6">
-        <v>0.2009268870835046</v>
+        <v>0.4861213416639563</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0889037400489745</v>
+        <v>0.1945133333333333</v>
       </c>
       <c r="N6">
-        <v>0.0889037400489745</v>
+        <v>0.5835399999999999</v>
       </c>
       <c r="O6">
-        <v>0.002147213043617083</v>
+        <v>0.002056732959455133</v>
       </c>
       <c r="P6">
-        <v>0.002147213043617083</v>
+        <v>0.002056732959455133</v>
       </c>
       <c r="Q6">
-        <v>0.1994554336759706</v>
+        <v>1.727042909191111</v>
       </c>
       <c r="R6">
-        <v>0.1994554336759706</v>
+        <v>15.54338618272</v>
       </c>
       <c r="S6">
-        <v>0.000431432832759078</v>
+        <v>0.000999821785694809</v>
       </c>
       <c r="T6">
-        <v>0.000431432832759078</v>
+        <v>0.0009998217856948086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.2434987950574</v>
+        <v>8.878789333333332</v>
       </c>
       <c r="H7">
-        <v>2.2434987950574</v>
+        <v>26.636368</v>
       </c>
       <c r="I7">
-        <v>0.2009268870835046</v>
+        <v>0.4861213416639564</v>
       </c>
       <c r="J7">
-        <v>0.2009268870835046</v>
+        <v>0.4861213416639563</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.347330821437583</v>
+        <v>0.629965</v>
       </c>
       <c r="N7">
-        <v>0.347330821437583</v>
+        <v>1.889895</v>
       </c>
       <c r="O7">
-        <v>0.00838877273138541</v>
+        <v>0.00666108464956894</v>
       </c>
       <c r="P7">
-        <v>0.00838877273138541</v>
+        <v>0.006661084649568939</v>
       </c>
       <c r="Q7">
-        <v>0.7792362793815144</v>
+        <v>5.593326522373332</v>
       </c>
       <c r="R7">
-        <v>0.7792362793815144</v>
+        <v>50.33993870136</v>
       </c>
       <c r="S7">
-        <v>0.001685529991368259</v>
+        <v>0.003238095406785638</v>
       </c>
       <c r="T7">
-        <v>0.001685529991368259</v>
+        <v>0.003238095406785637</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.28583105311286</v>
+        <v>8.385368333333332</v>
       </c>
       <c r="H8">
-        <v>8.28583105311286</v>
+        <v>25.156105</v>
       </c>
       <c r="I8">
-        <v>0.7420758344375259</v>
+        <v>0.4591061181328987</v>
       </c>
       <c r="J8">
-        <v>0.7420758344375259</v>
+        <v>0.4591061181328985</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.2939901889302</v>
+        <v>91.82302933333334</v>
       </c>
       <c r="N8">
-        <v>39.2939901889302</v>
+        <v>275.469088</v>
       </c>
       <c r="O8">
-        <v>0.949032832847687</v>
+        <v>0.9709126239857535</v>
       </c>
       <c r="P8">
-        <v>0.949032832847687</v>
+        <v>0.9709126239857532</v>
       </c>
       <c r="Q8">
-        <v>325.5833641081499</v>
+        <v>769.969922442471</v>
       </c>
       <c r="R8">
-        <v>325.5833641081499</v>
+        <v>6929.729301982239</v>
       </c>
       <c r="S8">
-        <v>0.7042543313440564</v>
+        <v>0.445751925844326</v>
       </c>
       <c r="T8">
-        <v>0.7042543313440564</v>
+        <v>0.4457519258443257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.28583105311286</v>
+        <v>8.385368333333332</v>
       </c>
       <c r="H9">
-        <v>8.28583105311286</v>
+        <v>25.156105</v>
       </c>
       <c r="I9">
-        <v>0.7420758344375259</v>
+        <v>0.4591061181328987</v>
       </c>
       <c r="J9">
-        <v>0.7420758344375259</v>
+        <v>0.4591061181328985</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.227064258733325</v>
+        <v>0.2289483333333333</v>
       </c>
       <c r="N9">
-        <v>0.227064258733325</v>
+        <v>0.686845</v>
       </c>
       <c r="O9">
-        <v>0.00548408129762437</v>
+        <v>0.002420839616027969</v>
       </c>
       <c r="P9">
-        <v>0.00548408129762437</v>
+        <v>0.002420839616027969</v>
       </c>
       <c r="Q9">
-        <v>1.881416086064637</v>
+        <v>1.919816104302777</v>
       </c>
       <c r="R9">
-        <v>1.881416086064637</v>
+        <v>17.278344938725</v>
       </c>
       <c r="S9">
-        <v>0.004069604205057834</v>
+        <v>0.001111422278736938</v>
       </c>
       <c r="T9">
-        <v>0.004069604205057834</v>
+        <v>0.001111422278736937</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.28583105311286</v>
+        <v>8.385368333333332</v>
       </c>
       <c r="H10">
-        <v>8.28583105311286</v>
+        <v>25.156105</v>
       </c>
       <c r="I10">
-        <v>0.7420758344375259</v>
+        <v>0.4591061181328987</v>
       </c>
       <c r="J10">
-        <v>0.7420758344375259</v>
+        <v>0.4591061181328985</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.353134453448258</v>
+        <v>0.4168003333333333</v>
       </c>
       <c r="N10">
-        <v>0.353134453448258</v>
+        <v>1.250401</v>
       </c>
       <c r="O10">
-        <v>0.008528942698889704</v>
+        <v>0.004407137384302118</v>
       </c>
       <c r="P10">
-        <v>0.008528942698889704</v>
+        <v>0.004407137384302117</v>
       </c>
       <c r="Q10">
-        <v>2.926012420305614</v>
+        <v>3.49502431645611</v>
       </c>
       <c r="R10">
-        <v>2.926012420305614</v>
+        <v>31.45521884810499</v>
       </c>
       <c r="S10">
-        <v>0.006329122270148421</v>
+        <v>0.002023343736585323</v>
       </c>
       <c r="T10">
-        <v>0.006329122270148421</v>
+        <v>0.002023343736585321</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.28583105311286</v>
+        <v>8.385368333333332</v>
       </c>
       <c r="H11">
-        <v>8.28583105311286</v>
+        <v>25.156105</v>
       </c>
       <c r="I11">
-        <v>0.7420758344375259</v>
+        <v>0.4591061181328987</v>
       </c>
       <c r="J11">
-        <v>0.7420758344375259</v>
+        <v>0.4591061181328985</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.09382392368424</v>
+        <v>1.280680666666667</v>
       </c>
       <c r="N11">
-        <v>1.09382392368424</v>
+        <v>3.842042</v>
       </c>
       <c r="O11">
-        <v>0.02641815738079637</v>
+        <v>0.01354158140489241</v>
       </c>
       <c r="P11">
-        <v>0.02641815738079637</v>
+        <v>0.01354158140489241</v>
       </c>
       <c r="Q11">
-        <v>9.063240233500627</v>
+        <v>10.73897910737889</v>
       </c>
       <c r="R11">
-        <v>9.063240233500627</v>
+        <v>96.65081196640998</v>
       </c>
       <c r="S11">
-        <v>0.01960427618265635</v>
+        <v>0.006217022872180801</v>
       </c>
       <c r="T11">
-        <v>0.01960427618265635</v>
+        <v>0.006217022872180797</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.28583105311286</v>
+        <v>8.385368333333332</v>
       </c>
       <c r="H12">
-        <v>8.28583105311286</v>
+        <v>25.156105</v>
       </c>
       <c r="I12">
-        <v>0.7420758344375259</v>
+        <v>0.4591061181328987</v>
       </c>
       <c r="J12">
-        <v>0.7420758344375259</v>
+        <v>0.4591061181328985</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0889037400489745</v>
+        <v>0.1945133333333333</v>
       </c>
       <c r="N12">
-        <v>0.0889037400489745</v>
+        <v>0.5835399999999999</v>
       </c>
       <c r="O12">
-        <v>0.002147213043617083</v>
+        <v>0.002056732959455133</v>
       </c>
       <c r="P12">
-        <v>0.002147213043617083</v>
+        <v>0.002056732959455133</v>
       </c>
       <c r="Q12">
-        <v>0.7366413700356663</v>
+        <v>1.631065945744444</v>
       </c>
       <c r="R12">
-        <v>0.7366413700356663</v>
+        <v>14.6795935117</v>
       </c>
       <c r="S12">
-        <v>0.001593394911057287</v>
+        <v>0.0009442586850514348</v>
       </c>
       <c r="T12">
-        <v>0.001593394911057287</v>
+        <v>0.0009442586850514342</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.28583105311286</v>
+        <v>8.385368333333332</v>
       </c>
       <c r="H13">
-        <v>8.28583105311286</v>
+        <v>25.156105</v>
       </c>
       <c r="I13">
-        <v>0.7420758344375259</v>
+        <v>0.4591061181328987</v>
       </c>
       <c r="J13">
-        <v>0.7420758344375259</v>
+        <v>0.4591061181328985</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.347330821437583</v>
+        <v>0.629965</v>
       </c>
       <c r="N13">
-        <v>0.347330821437583</v>
+        <v>1.889895</v>
       </c>
       <c r="O13">
-        <v>0.00838877273138541</v>
+        <v>0.00666108464956894</v>
       </c>
       <c r="P13">
-        <v>0.00838877273138541</v>
+        <v>0.006661084649568939</v>
       </c>
       <c r="Q13">
-        <v>2.877924505970723</v>
+        <v>5.282488562108332</v>
       </c>
       <c r="R13">
-        <v>2.877924505970723</v>
+        <v>47.542397058975</v>
       </c>
       <c r="S13">
-        <v>0.006225105524549591</v>
+        <v>0.003058144716018236</v>
       </c>
       <c r="T13">
-        <v>0.006225105524549591</v>
+        <v>0.003058144716018234</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.636417193563425</v>
+        <v>0.02478833333333333</v>
       </c>
       <c r="H14">
-        <v>0.636417193563425</v>
+        <v>0.074365</v>
       </c>
       <c r="I14">
-        <v>0.05699727847896952</v>
+        <v>0.001357182539783206</v>
       </c>
       <c r="J14">
-        <v>0.05699727847896952</v>
+        <v>0.001357182539783206</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.2939901889302</v>
+        <v>91.82302933333334</v>
       </c>
       <c r="N14">
-        <v>39.2939901889302</v>
+        <v>275.469088</v>
       </c>
       <c r="O14">
-        <v>0.949032832847687</v>
+        <v>0.9709126239857535</v>
       </c>
       <c r="P14">
-        <v>0.949032832847687</v>
+        <v>0.9709126239857532</v>
       </c>
       <c r="Q14">
-        <v>25.00737095994771</v>
+        <v>2.276139858791111</v>
       </c>
       <c r="R14">
-        <v>25.00737095994771</v>
+        <v>20.48525872912</v>
       </c>
       <c r="S14">
-        <v>0.05409228865950495</v>
+        <v>0.001317705660928562</v>
       </c>
       <c r="T14">
-        <v>0.05409228865950495</v>
+        <v>0.001317705660928561</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.636417193563425</v>
+        <v>0.02478833333333333</v>
       </c>
       <c r="H15">
-        <v>0.636417193563425</v>
+        <v>0.074365</v>
       </c>
       <c r="I15">
-        <v>0.05699727847896952</v>
+        <v>0.001357182539783206</v>
       </c>
       <c r="J15">
-        <v>0.05699727847896952</v>
+        <v>0.001357182539783206</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.227064258733325</v>
+        <v>0.2289483333333333</v>
       </c>
       <c r="N15">
-        <v>0.227064258733325</v>
+        <v>0.686845</v>
       </c>
       <c r="O15">
-        <v>0.00548408129762437</v>
+        <v>0.002420839616027969</v>
       </c>
       <c r="P15">
-        <v>0.00548408129762437</v>
+        <v>0.002420839616027969</v>
       </c>
       <c r="Q15">
-        <v>0.1445075983016221</v>
+        <v>0.005675247602777778</v>
       </c>
       <c r="R15">
-        <v>0.1445075983016221</v>
+        <v>0.051077228425</v>
       </c>
       <c r="S15">
-        <v>0.0003125777089220047</v>
+        <v>3.285521258488641E-06</v>
       </c>
       <c r="T15">
-        <v>0.0003125777089220047</v>
+        <v>3.28552125848864E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.636417193563425</v>
+        <v>0.02478833333333333</v>
       </c>
       <c r="H16">
-        <v>0.636417193563425</v>
+        <v>0.074365</v>
       </c>
       <c r="I16">
-        <v>0.05699727847896952</v>
+        <v>0.001357182539783206</v>
       </c>
       <c r="J16">
-        <v>0.05699727847896952</v>
+        <v>0.001357182539783206</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.353134453448258</v>
+        <v>0.4168003333333333</v>
       </c>
       <c r="N16">
-        <v>0.353134453448258</v>
+        <v>1.250401</v>
       </c>
       <c r="O16">
-        <v>0.008528942698889704</v>
+        <v>0.004407137384302118</v>
       </c>
       <c r="P16">
-        <v>0.008528942698889704</v>
+        <v>0.004407137384302117</v>
       </c>
       <c r="Q16">
-        <v>0.2247408378140943</v>
+        <v>0.01033178559611111</v>
       </c>
       <c r="R16">
-        <v>0.2247408378140943</v>
+        <v>0.09298607036499999</v>
       </c>
       <c r="S16">
-        <v>0.0004861265221397904</v>
+        <v>5.981289908400665E-06</v>
       </c>
       <c r="T16">
-        <v>0.0004861265221397904</v>
+        <v>5.981289908400663E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.636417193563425</v>
+        <v>0.02478833333333333</v>
       </c>
       <c r="H17">
-        <v>0.636417193563425</v>
+        <v>0.074365</v>
       </c>
       <c r="I17">
-        <v>0.05699727847896952</v>
+        <v>0.001357182539783206</v>
       </c>
       <c r="J17">
-        <v>0.05699727847896952</v>
+        <v>0.001357182539783206</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.09382392368424</v>
+        <v>1.280680666666667</v>
       </c>
       <c r="N17">
-        <v>1.09382392368424</v>
+        <v>3.842042</v>
       </c>
       <c r="O17">
-        <v>0.02641815738079637</v>
+        <v>0.01354158140489241</v>
       </c>
       <c r="P17">
-        <v>0.02641815738079637</v>
+        <v>0.01354158140489241</v>
       </c>
       <c r="Q17">
-        <v>0.6961283517636579</v>
+        <v>0.03174593925888888</v>
       </c>
       <c r="R17">
-        <v>0.6961283517636579</v>
+        <v>0.28571345333</v>
       </c>
       <c r="S17">
-        <v>0.001505763073134495</v>
+        <v>1.837839784377293E-05</v>
       </c>
       <c r="T17">
-        <v>0.001505763073134495</v>
+        <v>1.837839784377292E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.636417193563425</v>
+        <v>0.02478833333333333</v>
       </c>
       <c r="H18">
-        <v>0.636417193563425</v>
+        <v>0.074365</v>
       </c>
       <c r="I18">
-        <v>0.05699727847896952</v>
+        <v>0.001357182539783206</v>
       </c>
       <c r="J18">
-        <v>0.05699727847896952</v>
+        <v>0.001357182539783206</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0889037400489745</v>
+        <v>0.1945133333333333</v>
       </c>
       <c r="N18">
-        <v>0.0889037400489745</v>
+        <v>0.5835399999999999</v>
       </c>
       <c r="O18">
-        <v>0.002147213043617083</v>
+        <v>0.002056732959455133</v>
       </c>
       <c r="P18">
-        <v>0.002147213043617083</v>
+        <v>0.002056732959455133</v>
       </c>
       <c r="Q18">
-        <v>0.05657986873926062</v>
+        <v>0.004821661344444444</v>
       </c>
       <c r="R18">
-        <v>0.05657986873926062</v>
+        <v>0.04339495209999999</v>
       </c>
       <c r="S18">
-        <v>0.0001223852998007186</v>
+        <v>2.791362061569148E-06</v>
       </c>
       <c r="T18">
-        <v>0.0001223852998007186</v>
+        <v>2.791362061569147E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02478833333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.074365</v>
+      </c>
+      <c r="I19">
+        <v>0.001357182539783206</v>
+      </c>
+      <c r="J19">
+        <v>0.001357182539783206</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.629965</v>
+      </c>
+      <c r="N19">
+        <v>1.889895</v>
+      </c>
+      <c r="O19">
+        <v>0.00666108464956894</v>
+      </c>
+      <c r="P19">
+        <v>0.006661084649568939</v>
+      </c>
+      <c r="Q19">
+        <v>0.01561578240833333</v>
+      </c>
+      <c r="R19">
+        <v>0.140542041675</v>
+      </c>
+      <c r="S19">
+        <v>9.040307782412903E-06</v>
+      </c>
+      <c r="T19">
+        <v>9.040307782412898E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.296732</v>
+      </c>
+      <c r="H20">
+        <v>0.890196</v>
+      </c>
+      <c r="I20">
+        <v>0.01624633185214619</v>
+      </c>
+      <c r="J20">
+        <v>0.01624633185214618</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>91.82302933333334</v>
+      </c>
+      <c r="N20">
+        <v>275.469088</v>
+      </c>
+      <c r="O20">
+        <v>0.9709126239857535</v>
+      </c>
+      <c r="P20">
+        <v>0.9709126239857532</v>
+      </c>
+      <c r="Q20">
+        <v>27.24683114013867</v>
+      </c>
+      <c r="R20">
+        <v>245.221480261248</v>
+      </c>
+      <c r="S20">
+        <v>0.01577376868871058</v>
+      </c>
+      <c r="T20">
+        <v>0.01577376868871057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.296732</v>
+      </c>
+      <c r="H21">
+        <v>0.890196</v>
+      </c>
+      <c r="I21">
+        <v>0.01624633185214619</v>
+      </c>
+      <c r="J21">
+        <v>0.01624633185214618</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2289483333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.686845</v>
+      </c>
+      <c r="O21">
+        <v>0.002420839616027969</v>
+      </c>
+      <c r="P21">
+        <v>0.002420839616027969</v>
+      </c>
+      <c r="Q21">
+        <v>0.06793629684666666</v>
+      </c>
+      <c r="R21">
+        <v>0.61142667162</v>
+      </c>
+      <c r="S21">
+        <v>3.932976376281254E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.932976376281253E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.296732</v>
+      </c>
+      <c r="H22">
+        <v>0.890196</v>
+      </c>
+      <c r="I22">
+        <v>0.01624633185214619</v>
+      </c>
+      <c r="J22">
+        <v>0.01624633185214618</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.4168003333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.250401</v>
+      </c>
+      <c r="O22">
+        <v>0.004407137384302118</v>
+      </c>
+      <c r="P22">
+        <v>0.004407137384302117</v>
+      </c>
+      <c r="Q22">
+        <v>0.1236779965106666</v>
+      </c>
+      <c r="R22">
+        <v>1.113101968596</v>
+      </c>
+      <c r="S22">
+        <v>7.159981646337173E-05</v>
+      </c>
+      <c r="T22">
+        <v>7.15998164633717E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.296732</v>
+      </c>
+      <c r="H23">
+        <v>0.890196</v>
+      </c>
+      <c r="I23">
+        <v>0.01624633185214619</v>
+      </c>
+      <c r="J23">
+        <v>0.01624633185214618</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.280680666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.842042</v>
+      </c>
+      <c r="O23">
+        <v>0.01354158140489241</v>
+      </c>
+      <c r="P23">
+        <v>0.01354158140489241</v>
+      </c>
+      <c r="Q23">
+        <v>0.3800189355813333</v>
+      </c>
+      <c r="R23">
+        <v>3.420170420232</v>
+      </c>
+      <c r="S23">
+        <v>0.0002200010253067341</v>
+      </c>
+      <c r="T23">
+        <v>0.000220001025306734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.296732</v>
+      </c>
+      <c r="H24">
+        <v>0.890196</v>
+      </c>
+      <c r="I24">
+        <v>0.01624633185214619</v>
+      </c>
+      <c r="J24">
+        <v>0.01624633185214618</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1945133333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.5835399999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.002056732959455133</v>
+      </c>
+      <c r="P24">
+        <v>0.002056732959455133</v>
+      </c>
+      <c r="Q24">
+        <v>0.05771833042666666</v>
+      </c>
+      <c r="R24">
+        <v>0.5194649738399999</v>
+      </c>
+      <c r="S24">
+        <v>3.341436619055482E-05</v>
+      </c>
+      <c r="T24">
+        <v>3.341436619055481E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.296732</v>
+      </c>
+      <c r="H25">
+        <v>0.890196</v>
+      </c>
+      <c r="I25">
+        <v>0.01624633185214619</v>
+      </c>
+      <c r="J25">
+        <v>0.01624633185214618</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.629965</v>
+      </c>
+      <c r="N25">
+        <v>1.889895</v>
+      </c>
+      <c r="O25">
+        <v>0.00666108464956894</v>
+      </c>
+      <c r="P25">
+        <v>0.006661084649568939</v>
+      </c>
+      <c r="Q25">
+        <v>0.18693077438</v>
+      </c>
+      <c r="R25">
+        <v>1.68237696942</v>
+      </c>
+      <c r="S25">
+        <v>0.0001082181917121339</v>
+      </c>
+      <c r="T25">
+        <v>0.0001082181917121338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.6788756666666668</v>
+      </c>
+      <c r="H26">
+        <v>2.036627</v>
+      </c>
+      <c r="I26">
+        <v>0.03716902581121566</v>
+      </c>
+      <c r="J26">
+        <v>0.03716902581121564</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>91.82302933333334</v>
+      </c>
+      <c r="N26">
+        <v>275.469088</v>
+      </c>
+      <c r="O26">
+        <v>0.9709126239857535</v>
+      </c>
+      <c r="P26">
+        <v>0.9709126239857532</v>
+      </c>
+      <c r="Q26">
+        <v>62.33642025401956</v>
+      </c>
+      <c r="R26">
+        <v>561.027782286176</v>
+      </c>
+      <c r="S26">
+        <v>0.03608787638136159</v>
+      </c>
+      <c r="T26">
+        <v>0.03608787638136157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.6788756666666668</v>
+      </c>
+      <c r="H27">
+        <v>2.036627</v>
+      </c>
+      <c r="I27">
+        <v>0.03716902581121566</v>
+      </c>
+      <c r="J27">
+        <v>0.03716902581121564</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.2289483333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.686845</v>
+      </c>
+      <c r="O27">
+        <v>0.002420839616027969</v>
+      </c>
+      <c r="P27">
+        <v>0.002420839616027969</v>
+      </c>
+      <c r="Q27">
+        <v>0.1554274524238889</v>
+      </c>
+      <c r="R27">
+        <v>1.398847071815</v>
+      </c>
+      <c r="S27">
+        <v>8.998025017295699E-05</v>
+      </c>
+      <c r="T27">
+        <v>8.998025017295694E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.636417193563425</v>
-      </c>
-      <c r="H19">
-        <v>0.636417193563425</v>
-      </c>
-      <c r="I19">
-        <v>0.05699727847896952</v>
-      </c>
-      <c r="J19">
-        <v>0.05699727847896952</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.347330821437583</v>
-      </c>
-      <c r="N19">
-        <v>0.347330821437583</v>
-      </c>
-      <c r="O19">
-        <v>0.00838877273138541</v>
-      </c>
-      <c r="P19">
-        <v>0.00838877273138541</v>
-      </c>
-      <c r="Q19">
-        <v>0.2210473066173856</v>
-      </c>
-      <c r="R19">
-        <v>0.2210473066173856</v>
-      </c>
-      <c r="S19">
-        <v>0.00047813721546756</v>
-      </c>
-      <c r="T19">
-        <v>0.00047813721546756</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.6788756666666668</v>
+      </c>
+      <c r="H28">
+        <v>2.036627</v>
+      </c>
+      <c r="I28">
+        <v>0.03716902581121566</v>
+      </c>
+      <c r="J28">
+        <v>0.03716902581121564</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4168003333333333</v>
+      </c>
+      <c r="N28">
+        <v>1.250401</v>
+      </c>
+      <c r="O28">
+        <v>0.004407137384302118</v>
+      </c>
+      <c r="P28">
+        <v>0.004407137384302117</v>
+      </c>
+      <c r="Q28">
+        <v>0.2829556041585555</v>
+      </c>
+      <c r="R28">
+        <v>2.546600437427</v>
+      </c>
+      <c r="S28">
+        <v>0.0001638090031906989</v>
+      </c>
+      <c r="T28">
+        <v>0.0001638090031906988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.6788756666666668</v>
+      </c>
+      <c r="H29">
+        <v>2.036627</v>
+      </c>
+      <c r="I29">
+        <v>0.03716902581121566</v>
+      </c>
+      <c r="J29">
+        <v>0.03716902581121564</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.280680666666667</v>
+      </c>
+      <c r="N29">
+        <v>3.842042</v>
+      </c>
+      <c r="O29">
+        <v>0.01354158140489241</v>
+      </c>
+      <c r="P29">
+        <v>0.01354158140489241</v>
+      </c>
+      <c r="Q29">
+        <v>0.8694229413704445</v>
+      </c>
+      <c r="R29">
+        <v>7.824806472334</v>
+      </c>
+      <c r="S29">
+        <v>0.0005033273887631242</v>
+      </c>
+      <c r="T29">
+        <v>0.0005033273887631238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.6788756666666668</v>
+      </c>
+      <c r="H30">
+        <v>2.036627</v>
+      </c>
+      <c r="I30">
+        <v>0.03716902581121566</v>
+      </c>
+      <c r="J30">
+        <v>0.03716902581121564</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1945133333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.5835399999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.002056732959455133</v>
+      </c>
+      <c r="P30">
+        <v>0.002056732959455133</v>
+      </c>
+      <c r="Q30">
+        <v>0.1320503688422222</v>
+      </c>
+      <c r="R30">
+        <v>1.18845331958</v>
+      </c>
+      <c r="S30">
+        <v>7.644676045676582E-05</v>
+      </c>
+      <c r="T30">
+        <v>7.644676045676577E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.6788756666666668</v>
+      </c>
+      <c r="H31">
+        <v>2.036627</v>
+      </c>
+      <c r="I31">
+        <v>0.03716902581121566</v>
+      </c>
+      <c r="J31">
+        <v>0.03716902581121564</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.629965</v>
+      </c>
+      <c r="N31">
+        <v>1.889895</v>
+      </c>
+      <c r="O31">
+        <v>0.00666108464956894</v>
+      </c>
+      <c r="P31">
+        <v>0.006661084649568939</v>
+      </c>
+      <c r="Q31">
+        <v>0.4276679093516667</v>
+      </c>
+      <c r="R31">
+        <v>3.849011184165001</v>
+      </c>
+      <c r="S31">
+        <v>0.0002475860272705203</v>
+      </c>
+      <c r="T31">
+        <v>0.0002475860272705202</v>
       </c>
     </row>
   </sheetData>
